--- a/Real/yongsan7.xlsx
+++ b/Real/yongsan7.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang/Pandas/Real/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF414F8-314E-3248-AC37-E9F40F5CFA9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -178,8 +194,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,13 +214,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -228,20 +260,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -288,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,9 +368,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,6 +420,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,14 +613,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>88011</v>
       </c>
@@ -644,8 +734,12 @@
       <c r="R2" t="s">
         <v>51</v>
       </c>
+      <c r="S2" s="2">
+        <f>G2/3.3</f>
+        <v>17.878787878787879</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>88014</v>
       </c>
@@ -700,8 +794,12 @@
       <c r="R3" t="s">
         <v>51</v>
       </c>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S15" si="0">G3/3.3</f>
+        <v>17.878787878787879</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>88017</v>
       </c>
@@ -756,120 +854,132 @@
       <c r="R4" t="s">
         <v>51</v>
       </c>
+      <c r="S4" s="2">
+        <f t="shared" si="0"/>
+        <v>17.878787878787879</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>88214</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>88214</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>52</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>64000</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>2014</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>2020</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>27</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <v>6</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="S5" s="5">
+        <f t="shared" si="0"/>
+        <v>15.757575757575758</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>88218</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>88218</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>38</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>68000</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>2014</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>2020</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>7</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>6</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="S6" s="5">
+        <f t="shared" si="0"/>
+        <v>11.515151515151516</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>88395</v>
       </c>
@@ -924,8 +1034,12 @@
       <c r="R7" t="s">
         <v>52</v>
       </c>
+      <c r="S7" s="2">
+        <f t="shared" si="0"/>
+        <v>13.030303030303031</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>88396</v>
       </c>
@@ -980,8 +1094,12 @@
       <c r="R8" t="s">
         <v>52</v>
       </c>
+      <c r="S8" s="2">
+        <f t="shared" si="0"/>
+        <v>13.030303030303031</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>88402</v>
       </c>
@@ -1036,8 +1154,12 @@
       <c r="R9" t="s">
         <v>52</v>
       </c>
+      <c r="S9" s="2">
+        <f t="shared" si="0"/>
+        <v>13.030303030303031</v>
+      </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>89074</v>
       </c>
@@ -1092,8 +1214,12 @@
       <c r="R10" t="s">
         <v>51</v>
       </c>
+      <c r="S10" s="2">
+        <f t="shared" si="0"/>
+        <v>18.787878787878789</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>89082</v>
       </c>
@@ -1148,8 +1274,12 @@
       <c r="R11" t="s">
         <v>52</v>
       </c>
+      <c r="S11" s="2">
+        <f t="shared" si="0"/>
+        <v>17.878787878787879</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>89083</v>
       </c>
@@ -1204,8 +1334,12 @@
       <c r="R12" t="s">
         <v>52</v>
       </c>
+      <c r="S12" s="2">
+        <f t="shared" si="0"/>
+        <v>17.878787878787879</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>89249</v>
       </c>
@@ -1260,8 +1394,12 @@
       <c r="R13" t="s">
         <v>51</v>
       </c>
+      <c r="S13" s="2">
+        <f t="shared" si="0"/>
+        <v>25.454545454545457</v>
+      </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>89279</v>
       </c>
@@ -1316,8 +1454,12 @@
       <c r="R14" t="s">
         <v>51</v>
       </c>
+      <c r="S14" s="2">
+        <f t="shared" si="0"/>
+        <v>25.454545454545457</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>89318</v>
       </c>
@@ -1371,6 +1513,10 @@
       </c>
       <c r="R15" t="s">
         <v>51</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>24.848484848484851</v>
       </c>
     </row>
   </sheetData>
